--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\project3\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA81607-3011-4E98-8E65-80534B6F1E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F65C7B-8284-4EE1-BAA5-225557D4E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -437,6 +446,25 @@
   </si>
   <si>
     <t>[id]</t>
+  </si>
+  <si>
+    <t>[kelas]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KELAS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JANGAN DIRUBAH</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -549,6 +577,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,62 +918,66 @@
     <col min="42" max="42" width="24.5703125" customWidth="1"/>
     <col min="43" max="43" width="26" customWidth="1"/>
     <col min="44" max="44" width="11.5703125" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="AS1" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:45" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1072,9 +1104,10 @@
       <c r="AQ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" s="6"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1204,12 +1237,16 @@
       <c r="AQ3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AS1:AS2"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:Y1"/>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\elearning\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F65C7B-8284-4EE1-BAA5-225557D4E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -466,11 +465,30 @@
       <t>JANGAN DIRUBAH</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JANGAN DIRUBAH</t>
+    </r>
+  </si>
+  <si>
+    <t>[uid]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,11 +889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
-  <dimension ref="A1:AS3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,9 +937,10 @@
     <col min="43" max="43" width="26" customWidth="1"/>
     <col min="44" max="44" width="11.5703125" customWidth="1"/>
     <col min="45" max="45" width="9.7109375" customWidth="1"/>
+    <col min="46" max="46" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -975,8 +994,11 @@
       <c r="AS1" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="AT1" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1106,8 +1128,9 @@
       </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1243,9 +1266,13 @@
       <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="AT3" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="AS1:AS2"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="A1:A2"/>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\elearning\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A14D19-417E-4763-A169-8A288D8BCA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -122,9 +114,6 @@
     </r>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>TANGGAL LAHIR AYAH</t>
   </si>
   <si>
@@ -167,9 +156,6 @@
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>SISWA</t>
   </si>
   <si>
     <r>
@@ -444,51 +430,16 @@
     </r>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
     <t>[id]</t>
-  </si>
-  <si>
-    <t>[kelas]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KELAS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JANGAN DIRUBAH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JANGAN DIRUBAH</t>
-    </r>
-  </si>
-  <si>
-    <t>[uid]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,18 +479,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -554,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -577,38 +522,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,351 +891,277 @@
     <col min="42" max="42" width="24.5703125" customWidth="1"/>
     <col min="43" max="43" width="26" customWidth="1"/>
     <col min="44" max="44" width="11.5703125" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" customWidth="1"/>
-    <col min="46" max="46" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A14D19-417E-4763-A169-8A288D8BCA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0011B8-71E2-4885-A4F3-32F8536D241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t xml:space="preserve">AGAMA </t>
   </si>
   <si>
-    <t>STATUS DALAM KELUARGA</t>
-  </si>
-  <si>
     <t>PENDIDIKAN
 IBU</t>
   </si>
@@ -434,6 +431,12 @@
   </si>
   <si>
     <t>[id]</t>
+  </si>
+  <si>
+    <t>STATUS DALAM KELUARGA
+1 = Anak Kandung
+2 = Anak Tiri
+ 3 = Anak Angkat</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,6 +566,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,9 +899,9 @@
     <col min="44" max="44" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -942,29 +948,29 @@
       <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>63</v>
+      <c r="Q1" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>5</v>
@@ -994,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>6</v>
@@ -1003,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>8</v>
@@ -1012,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>7</v>
@@ -1021,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -1032,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1083,22 +1089,22 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
         <v>78</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>79</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>80</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>81</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>82</v>
-      </c>
-      <c r="X2" t="s">
-        <v>83</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>41</v>
@@ -1119,7 +1125,7 @@
         <v>46</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
         <v>47</v>
@@ -1137,7 +1143,7 @@
         <v>51</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
         <v>52</v>
@@ -1155,10 +1161,10 @@
         <v>56</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0011B8-71E2-4885-A4F3-32F8536D241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8084F-A4CD-4ED2-9DC4-52332F7CA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -214,113 +214,11 @@
     </r>
   </si>
   <si>
-    <t>[no]</t>
-  </si>
-  <si>
-    <t>[nis]</t>
-  </si>
-  <si>
-    <t>[nama]</t>
-  </si>
-  <si>
-    <t>[jk]</t>
-  </si>
-  <si>
-    <t>[username]</t>
-  </si>
-  <si>
-    <t>[password]</t>
-  </si>
-  <si>
-    <t>[kelas_awal]</t>
-  </si>
-  <si>
-    <t>[tgl_diterima]</t>
-  </si>
-  <si>
-    <t>[sekolah_asal]</t>
-  </si>
-  <si>
-    <t>[tempat_lahir]</t>
-  </si>
-  <si>
-    <t>[tgl_lahir]</t>
-  </si>
-  <si>
-    <t>[agama]</t>
-  </si>
-  <si>
-    <t>[tlp_siswa]</t>
-  </si>
-  <si>
     <t>ANAK KE</t>
-  </si>
-  <si>
-    <t>[anak_ke]</t>
-  </si>
-  <si>
-    <t>[status_keluarga]</t>
-  </si>
-  <si>
-    <t>[alamat_siswa]</t>
-  </si>
-  <si>
-    <t>[kode_pos]</t>
-  </si>
-  <si>
-    <t>[nama_ayah]</t>
-  </si>
-  <si>
-    <t>[tgl_lahir_ayah]</t>
-  </si>
-  <si>
-    <t>[pekerjaan_ayah]</t>
-  </si>
-  <si>
-    <t>[pendidikan_ayah]</t>
-  </si>
-  <si>
-    <t>[tlp_ayah]</t>
-  </si>
-  <si>
-    <t>[nama_ibu]</t>
-  </si>
-  <si>
-    <t>[tgl_lahir_ibu]</t>
-  </si>
-  <si>
-    <t>[pendidikan_ibu]</t>
-  </si>
-  <si>
-    <t>[pekerjaan_ibu]</t>
-  </si>
-  <si>
-    <t>[tlp_ibu]</t>
-  </si>
-  <si>
-    <t>[nama_wali]</t>
-  </si>
-  <si>
-    <t>[tgl_lahir_wali]</t>
-  </si>
-  <si>
-    <t>[pendidikan_wali]</t>
-  </si>
-  <si>
-    <t>[pekerjaan_wali]</t>
-  </si>
-  <si>
-    <t>[tlp_wali]</t>
   </si>
   <si>
     <t>TANGGAL LAHIR FORMAT
 (DD-MM-YYY) CONTOH (05-06-1990)</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>[email]</t>
   </si>
   <si>
     <r>
@@ -375,40 +273,10 @@
     <t>ALAMAT AYAH</t>
   </si>
   <si>
-    <t>[alamat_ayah]</t>
-  </si>
-  <si>
     <t>ALAMAT WALI</t>
   </si>
   <si>
     <t>ALAMAT IBU</t>
-  </si>
-  <si>
-    <t>[alamat_wali]</t>
-  </si>
-  <si>
-    <t>[alamat_ibu]</t>
-  </si>
-  <si>
-    <t>[rt]</t>
-  </si>
-  <si>
-    <t>[rw]</t>
-  </si>
-  <si>
-    <t>[kel]</t>
-  </si>
-  <si>
-    <t>[kec]</t>
-  </si>
-  <si>
-    <t>[kab]</t>
-  </si>
-  <si>
-    <t>[prov]</t>
-  </si>
-  <si>
-    <t>[nisn]</t>
   </si>
   <si>
     <r>
@@ -430,13 +298,139 @@
     <t>No.</t>
   </si>
   <si>
-    <t>[id]</t>
-  </si>
-  <si>
     <t>STATUS DALAM KELUARGA
 1 = Anak Kandung
 2 = Anak Tiri
  3 = Anak Angkat</t>
+  </si>
+  <si>
+    <t>{siswa.no}</t>
+  </si>
+  <si>
+    <t>{siswa.nisn}</t>
+  </si>
+  <si>
+    <t>{siswa.nis}</t>
+  </si>
+  <si>
+    <t>{siswa.nama}</t>
+  </si>
+  <si>
+    <t>{siswa.username}</t>
+  </si>
+  <si>
+    <t>{siswa.password}</t>
+  </si>
+  <si>
+    <t>{siswa.kelas_awal}</t>
+  </si>
+  <si>
+    <t>{siswa.sekolah_asal}</t>
+  </si>
+  <si>
+    <t>{siswa.tempat_lahir}</t>
+  </si>
+  <si>
+    <t>{siswa.agama}</t>
+  </si>
+  <si>
+    <t>{siswa.anak_ke}</t>
+  </si>
+  <si>
+    <t>{siswa.status_keluarga}</t>
+  </si>
+  <si>
+    <t>{siswa.rt}</t>
+  </si>
+  <si>
+    <t>{siswa.rw}</t>
+  </si>
+  <si>
+    <t>{siswa.kode_pos}</t>
+  </si>
+  <si>
+    <t>{siswa.nama_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.tgl_lahir_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.pendidikan_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.pekerjaan_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.alamat_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.nama_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.tgl_lahir_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.pendidikan_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.pekerjaan_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.alamat_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.nama_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.tgl_lahir_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.pendidikan_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.pekerjaan_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.alamat_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.jenis_kelamin}</t>
+  </si>
+  <si>
+    <t>{siswa.tahun_masuk}</t>
+  </si>
+  <si>
+    <t>{siswa.tanggal_lahir}</t>
+  </si>
+  <si>
+    <t>{siswa.hp}</t>
+  </si>
+  <si>
+    <t>{siswa.alamat}</t>
+  </si>
+  <si>
+    <t>{siswa.kelurahan}</t>
+  </si>
+  <si>
+    <t>{siswa.kecamatan}</t>
+  </si>
+  <si>
+    <t>{siswa.kabupaten}</t>
+  </si>
+  <si>
+    <t>{siswa.provinsi}</t>
+  </si>
+  <si>
+    <t>{siswa.nohp_ayah}</t>
+  </si>
+  <si>
+    <t>{siswa.nohp_ibu}</t>
+  </si>
+  <si>
+    <t>{siswa.nohp_wali}</t>
+  </si>
+  <si>
+    <t>{siswa.id_siswa}</t>
   </si>
 </sst>
 </file>
@@ -491,13 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,34 +536,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,298 +864,291 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="24" width="25.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="31" width="24.28515625" customWidth="1"/>
-    <col min="32" max="32" width="23" customWidth="1"/>
-    <col min="33" max="33" width="23.7109375" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" customWidth="1"/>
-    <col min="37" max="37" width="23.5703125" customWidth="1"/>
-    <col min="38" max="38" width="21.28515625" customWidth="1"/>
-    <col min="39" max="39" width="22.85546875" customWidth="1"/>
-    <col min="40" max="40" width="17" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" customWidth="1"/>
-    <col min="42" max="42" width="24.5703125" customWidth="1"/>
-    <col min="43" max="43" width="26" customWidth="1"/>
-    <col min="44" max="44" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="19" width="6.28515625" customWidth="1"/>
+    <col min="20" max="23" width="25.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="28" max="30" width="24.28515625" customWidth="1"/>
+    <col min="31" max="31" width="23" customWidth="1"/>
+    <col min="32" max="32" width="23.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" customWidth="1"/>
+    <col min="37" max="37" width="21.28515625" customWidth="1"/>
+    <col min="38" max="38" width="22.85546875" customWidth="1"/>
+    <col min="39" max="39" width="17" customWidth="1"/>
+    <col min="40" max="40" width="20.140625" customWidth="1"/>
+    <col min="41" max="41" width="24.5703125" customWidth="1"/>
+    <col min="42" max="42" width="26" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:43" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\umbk\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8084F-A4CD-4ED2-9DC4-52332F7CA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>SEKOLAH ASAL</t>
   </si>
@@ -432,11 +431,17 @@
   <si>
     <t>{siswa.id_siswa}</t>
   </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>{siswa.email}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO17" sqref="AO17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,32 +869,33 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="18" max="19" width="6.28515625" customWidth="1"/>
-    <col min="20" max="23" width="25.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" customWidth="1"/>
-    <col min="28" max="30" width="24.28515625" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="23.7109375" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" customWidth="1"/>
-    <col min="36" max="36" width="23.5703125" customWidth="1"/>
-    <col min="37" max="37" width="21.28515625" customWidth="1"/>
-    <col min="38" max="38" width="22.85546875" customWidth="1"/>
-    <col min="39" max="39" width="17" customWidth="1"/>
-    <col min="40" max="40" width="20.140625" customWidth="1"/>
-    <col min="41" max="41" width="24.5703125" customWidth="1"/>
-    <col min="42" max="42" width="26" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="19" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="24" width="25.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
+    <col min="29" max="31" width="24.28515625" customWidth="1"/>
+    <col min="32" max="32" width="23" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" customWidth="1"/>
+    <col min="37" max="37" width="23.5703125" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" customWidth="1"/>
+    <col min="39" max="39" width="22.85546875" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" customWidth="1"/>
+    <col min="42" max="42" width="24.5703125" customWidth="1"/>
+    <col min="43" max="43" width="26" customWidth="1"/>
+    <col min="44" max="44" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -933,94 +939,97 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1064,90 +1073,93 @@
         <v>76</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>85</v>
       </c>
     </row>

--- a/uploads/import/format/format_update_siswa.xlsx
+++ b/uploads/import/format/format_update_siswa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\umbk\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0011B8-71E2-4885-A4F3-32F8536D241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -213,11 +214,113 @@
     </r>
   </si>
   <si>
+    <t>[no]</t>
+  </si>
+  <si>
+    <t>[nis]</t>
+  </si>
+  <si>
+    <t>[nama]</t>
+  </si>
+  <si>
+    <t>[jk]</t>
+  </si>
+  <si>
+    <t>[username]</t>
+  </si>
+  <si>
+    <t>[password]</t>
+  </si>
+  <si>
+    <t>[kelas_awal]</t>
+  </si>
+  <si>
+    <t>[tgl_diterima]</t>
+  </si>
+  <si>
+    <t>[sekolah_asal]</t>
+  </si>
+  <si>
+    <t>[tempat_lahir]</t>
+  </si>
+  <si>
+    <t>[tgl_lahir]</t>
+  </si>
+  <si>
+    <t>[agama]</t>
+  </si>
+  <si>
+    <t>[tlp_siswa]</t>
+  </si>
+  <si>
     <t>ANAK KE</t>
+  </si>
+  <si>
+    <t>[anak_ke]</t>
+  </si>
+  <si>
+    <t>[status_keluarga]</t>
+  </si>
+  <si>
+    <t>[alamat_siswa]</t>
+  </si>
+  <si>
+    <t>[kode_pos]</t>
+  </si>
+  <si>
+    <t>[nama_ayah]</t>
+  </si>
+  <si>
+    <t>[tgl_lahir_ayah]</t>
+  </si>
+  <si>
+    <t>[pekerjaan_ayah]</t>
+  </si>
+  <si>
+    <t>[pendidikan_ayah]</t>
+  </si>
+  <si>
+    <t>[tlp_ayah]</t>
+  </si>
+  <si>
+    <t>[nama_ibu]</t>
+  </si>
+  <si>
+    <t>[tgl_lahir_ibu]</t>
+  </si>
+  <si>
+    <t>[pendidikan_ibu]</t>
+  </si>
+  <si>
+    <t>[pekerjaan_ibu]</t>
+  </si>
+  <si>
+    <t>[tlp_ibu]</t>
+  </si>
+  <si>
+    <t>[nama_wali]</t>
+  </si>
+  <si>
+    <t>[tgl_lahir_wali]</t>
+  </si>
+  <si>
+    <t>[pendidikan_wali]</t>
+  </si>
+  <si>
+    <t>[pekerjaan_wali]</t>
+  </si>
+  <si>
+    <t>[tlp_wali]</t>
   </si>
   <si>
     <t>TANGGAL LAHIR FORMAT
 (DD-MM-YYY) CONTOH (05-06-1990)</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>[email]</t>
   </si>
   <si>
     <r>
@@ -272,10 +375,40 @@
     <t>ALAMAT AYAH</t>
   </si>
   <si>
+    <t>[alamat_ayah]</t>
+  </si>
+  <si>
     <t>ALAMAT WALI</t>
   </si>
   <si>
     <t>ALAMAT IBU</t>
+  </si>
+  <si>
+    <t>[alamat_wali]</t>
+  </si>
+  <si>
+    <t>[alamat_ibu]</t>
+  </si>
+  <si>
+    <t>[rt]</t>
+  </si>
+  <si>
+    <t>[rw]</t>
+  </si>
+  <si>
+    <t>[kel]</t>
+  </si>
+  <si>
+    <t>[kec]</t>
+  </si>
+  <si>
+    <t>[kab]</t>
+  </si>
+  <si>
+    <t>[prov]</t>
+  </si>
+  <si>
+    <t>[nisn]</t>
   </si>
   <si>
     <r>
@@ -297,151 +430,19 @@
     <t>No.</t>
   </si>
   <si>
+    <t>[id]</t>
+  </si>
+  <si>
     <t>STATUS DALAM KELUARGA
 1 = Anak Kandung
 2 = Anak Tiri
  3 = Anak Angkat</t>
   </si>
-  <si>
-    <t>{siswa.no}</t>
-  </si>
-  <si>
-    <t>{siswa.nisn}</t>
-  </si>
-  <si>
-    <t>{siswa.nis}</t>
-  </si>
-  <si>
-    <t>{siswa.nama}</t>
-  </si>
-  <si>
-    <t>{siswa.username}</t>
-  </si>
-  <si>
-    <t>{siswa.password}</t>
-  </si>
-  <si>
-    <t>{siswa.kelas_awal}</t>
-  </si>
-  <si>
-    <t>{siswa.sekolah_asal}</t>
-  </si>
-  <si>
-    <t>{siswa.tempat_lahir}</t>
-  </si>
-  <si>
-    <t>{siswa.agama}</t>
-  </si>
-  <si>
-    <t>{siswa.anak_ke}</t>
-  </si>
-  <si>
-    <t>{siswa.status_keluarga}</t>
-  </si>
-  <si>
-    <t>{siswa.rt}</t>
-  </si>
-  <si>
-    <t>{siswa.rw}</t>
-  </si>
-  <si>
-    <t>{siswa.kode_pos}</t>
-  </si>
-  <si>
-    <t>{siswa.nama_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.tgl_lahir_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.pendidikan_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.pekerjaan_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.alamat_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.nama_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.tgl_lahir_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.pendidikan_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.pekerjaan_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.alamat_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.nama_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.tgl_lahir_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.pendidikan_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.pekerjaan_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.alamat_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.jenis_kelamin}</t>
-  </si>
-  <si>
-    <t>{siswa.tahun_masuk}</t>
-  </si>
-  <si>
-    <t>{siswa.tanggal_lahir}</t>
-  </si>
-  <si>
-    <t>{siswa.hp}</t>
-  </si>
-  <si>
-    <t>{siswa.alamat}</t>
-  </si>
-  <si>
-    <t>{siswa.kelurahan}</t>
-  </si>
-  <si>
-    <t>{siswa.kecamatan}</t>
-  </si>
-  <si>
-    <t>{siswa.kabupaten}</t>
-  </si>
-  <si>
-    <t>{siswa.provinsi}</t>
-  </si>
-  <si>
-    <t>{siswa.nohp_ayah}</t>
-  </si>
-  <si>
-    <t>{siswa.nohp_ibu}</t>
-  </si>
-  <si>
-    <t>{siswa.nohp_wali}</t>
-  </si>
-  <si>
-    <t>{siswa.id_siswa}</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>{siswa.email}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,13 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,31 +542,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,11 +850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +873,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
@@ -896,271 +900,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="S1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>40</v>
+      <c r="AQ1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="AD2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="AE2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="AG2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="AH2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="AI2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>85</v>
+      <c r="AR2" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
